--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganda\Documents\GitHub\Software-Engineering-Principles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66DC2BF-7CDC-41AC-A631-FB4A0DA83BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97617CB-524E-4CB1-9C13-598301320409}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -42,31 +42,166 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Does website start to splash screen</t>
-  </si>
-  <si>
-    <t>Does splash screen HTML show correctly</t>
-  </si>
-  <si>
-    <t>Does splash screen CSS show correctly</t>
-  </si>
-  <si>
-    <t>Did not start up</t>
-  </si>
-  <si>
-    <t>how it was fixed</t>
-  </si>
-  <si>
-    <t>Did start up</t>
+    <t>Does website start on home page</t>
+  </si>
+  <si>
+    <t>Does home page HTML content load properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does home page CSS load properly </t>
+  </si>
+  <si>
+    <t>Does website start on about us page</t>
+  </si>
+  <si>
+    <t>Does about us page HTML content load properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does about us page CSS load properly </t>
+  </si>
+  <si>
+    <t>Does website start on location page</t>
+  </si>
+  <si>
+    <t>Does location page HTML content load properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does location page CSS load properly </t>
+  </si>
+  <si>
+    <t>Does website start on login page</t>
+  </si>
+  <si>
+    <t>Does login page HTML content load properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does login page CSS load properly </t>
+  </si>
+  <si>
+    <t>Web pages</t>
+  </si>
+  <si>
+    <t>log in system</t>
+  </si>
+  <si>
+    <t>user can register an account using email, password and username</t>
+  </si>
+  <si>
+    <t>user can log in using username and password</t>
+  </si>
+  <si>
+    <t>log in information can be matched to an existing account from the database</t>
+  </si>
+  <si>
+    <t>log in gives error when log in information does not match an account</t>
+  </si>
+  <si>
+    <t>users can log out by pressing a log out button on the home page</t>
+  </si>
+  <si>
+    <t>users can log out by pressing a log out button on any location page</t>
+  </si>
+  <si>
+    <t>users can log out by pressing a log out button on the about us page</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>database can store ratings for each location</t>
+  </si>
+  <si>
+    <t>database can calculate the average rating of a location</t>
+  </si>
+  <si>
+    <t>database can store reviews</t>
+  </si>
+  <si>
+    <t>database can store comments</t>
+  </si>
+  <si>
+    <t>database can store list of reported reviews</t>
+  </si>
+  <si>
+    <t>database can store list of reported comments</t>
+  </si>
+  <si>
+    <t>database can store user by username</t>
+  </si>
+  <si>
+    <t>database can store email of user</t>
+  </si>
+  <si>
+    <t>database can store password of user</t>
+  </si>
+  <si>
+    <t>database can store permissions of user</t>
+  </si>
+  <si>
+    <t>comment system</t>
+  </si>
+  <si>
+    <t>user can send a review using textbox on location page</t>
+  </si>
+  <si>
+    <t>textbox under a review adds a comment to comment list</t>
+  </si>
+  <si>
+    <t>user can report a comment using the report button</t>
+  </si>
+  <si>
+    <t>moderators have permission to remove a comment</t>
+  </si>
+  <si>
+    <t>users can not remove a comment</t>
+  </si>
+  <si>
+    <t>5-star rating system</t>
+  </si>
+  <si>
+    <t>average rating is retreived from the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user can choose a score between 1 and 5 </t>
+  </si>
+  <si>
+    <t>user score is stored on data</t>
+  </si>
+  <si>
+    <t>search system</t>
+  </si>
+  <si>
+    <t>user can type in search bar</t>
+  </si>
+  <si>
+    <t>search bar shows recommended locations</t>
+  </si>
+  <si>
+    <t>recommended locations in search changes to the closest match to user input in search bar</t>
+  </si>
+  <si>
+    <t>user can filter search by lowest ratings</t>
+  </si>
+  <si>
+    <t>user can filter search by highest ratings</t>
+  </si>
+  <si>
+    <t>user can filter search by Locations</t>
+  </si>
+  <si>
+    <t>user can filter search by Attractions</t>
+  </si>
+  <si>
+    <t>user can filter search by Accommodation</t>
+  </si>
+  <si>
+    <t>user can filter search by Restaurants</t>
+  </si>
+  <si>
+    <t>user can filter search by Events</t>
   </si>
 </sst>
 </file>
@@ -83,14 +218,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,16 +241,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -137,23 +273,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,24 +645,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -467,331 +680,811 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>44927</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B3" s="3">
-        <v>44928</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>44928</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>44929</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>26</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>27</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>29</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>36</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>37</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>38</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>39</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>40</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>41</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>42</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>43</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>44</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>45</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>46</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>47</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>48</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>49</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>50</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>51</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>52</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>53</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>54</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>55</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>56</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>57</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>58</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>59</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>60</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>61</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>62</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>63</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>64</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A40:F40"/>
+  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{E512270F-2D92-41CA-9A22-27898DA73656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E16:E22 E24:E33 E35:E39 E41:E43 E45:E1048576 E3:E14" xr:uid="{E512270F-2D92-41CA-9A22-27898DA73656}">
       <formula1>"yes, no"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganda\Documents\GitHub\Software-Engineering-Principles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97617CB-524E-4CB1-9C13-598301320409}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869FCFB2-7D30-4C44-BBD3-0C5CD8E14A1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>user can filter search by Events</t>
+  </si>
+  <si>
+    <t>Sign off by (feature develop and testing manager)</t>
   </si>
 </sst>
 </file>
@@ -250,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -288,56 +291,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -345,23 +308,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -645,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F4" sqref="A4:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,9 +609,10 @@
     <col min="4" max="4" width="36.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="45.88671875" customWidth="1"/>
+    <col min="7" max="7" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -679,809 +631,882 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>27</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>28</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>29</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>30</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>31</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>32</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>33</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>34</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>35</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>36</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>37</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>38</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>39</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>40</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>41</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>42</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>43</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>44</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>45</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>46</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>47</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>48</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>49</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>50</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>51</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>52</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>53</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>54</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>55</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>56</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
         <v>57</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
         <v>58</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>59</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>60</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>61</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>62</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>63</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
         <v>64</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A44:G44"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E16:E22 E24:E33 E35:E39 E41:E43 E45:E1048576 E3:E14" xr:uid="{E512270F-2D92-41CA-9A22-27898DA73656}">

--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganda\Documents\GitHub\Software-Engineering-Principles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869FCFB2-7D30-4C44-BBD3-0C5CD8E14A1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715395FB-2A6F-4122-A74E-EB6427838A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -54,27 +54,18 @@
     <t xml:space="preserve">Does home page CSS load properly </t>
   </si>
   <si>
-    <t>Does website start on about us page</t>
-  </si>
-  <si>
     <t>Does about us page HTML content load properly</t>
   </si>
   <si>
     <t xml:space="preserve">Does about us page CSS load properly </t>
   </si>
   <si>
-    <t>Does website start on location page</t>
-  </si>
-  <si>
     <t>Does location page HTML content load properly</t>
   </si>
   <si>
     <t xml:space="preserve">Does location page CSS load properly </t>
   </si>
   <si>
-    <t>Does website start on login page</t>
-  </si>
-  <si>
     <t>Does login page HTML content load properly</t>
   </si>
   <si>
@@ -205,6 +196,93 @@
   </si>
   <si>
     <t>Sign off by (feature develop and testing manager)</t>
+  </si>
+  <si>
+    <t>website starts on home page</t>
+  </si>
+  <si>
+    <t>html content loads properly</t>
+  </si>
+  <si>
+    <t>css content loads properly</t>
+  </si>
+  <si>
+    <t>Does website load location page</t>
+  </si>
+  <si>
+    <t>Does website load about us page</t>
+  </si>
+  <si>
+    <t>Does website load login page</t>
+  </si>
+  <si>
+    <t>website loads about us page</t>
+  </si>
+  <si>
+    <t>website loads login page</t>
+  </si>
+  <si>
+    <t>website loads loacation page</t>
+  </si>
+  <si>
+    <t>user can new account</t>
+  </si>
+  <si>
+    <t>user can login</t>
+  </si>
+  <si>
+    <t>user login information is matched to database</t>
+  </si>
+  <si>
+    <t>user can log out</t>
+  </si>
+  <si>
+    <t>each location can store 5 star reviews</t>
+  </si>
+  <si>
+    <t>5 star review is calculated on the average of all reviews</t>
+  </si>
+  <si>
+    <t>location reviews are stored on the database</t>
+  </si>
+  <si>
+    <t>location comments  are stored on the database</t>
+  </si>
+  <si>
+    <t>username of user is stored</t>
+  </si>
+  <si>
+    <t>email of user is stored</t>
+  </si>
+  <si>
+    <t>password of user is stored</t>
+  </si>
+  <si>
+    <t>permissions of user is stored</t>
+  </si>
+  <si>
+    <t>user can submit reviews</t>
+  </si>
+  <si>
+    <t>users can reply to reviews with comments</t>
+  </si>
+  <si>
+    <t>moderators can remove comments</t>
+  </si>
+  <si>
+    <t>5 star rating is retrived from database</t>
+  </si>
+  <si>
+    <t>user can choose rating from 1-5</t>
+  </si>
+  <si>
+    <t>5 star score is sent to database to be stored</t>
+  </si>
+  <si>
+    <t>recommended locations change based on what is typed</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -235,7 +313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +328,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -297,7 +387,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -305,14 +395,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -599,20 +695,20 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" customWidth="1"/>
-    <col min="4" max="4" width="36.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="45.88671875" customWidth="1"/>
-    <col min="7" max="7" width="40.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -632,687 +728,831 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="E5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="D17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="D25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+      <c r="D26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>24</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>25</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>26</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+      <c r="D33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
+      <c r="D35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>31</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="D36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>32</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>30</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>33</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>31</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
+      <c r="D38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>34</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>32</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
+      <c r="D39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>33</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>35</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>34</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
+      <c r="D41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>36</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="D42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>37</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>35</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
+      <c r="D43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>36</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>38</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>37</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2" t="s">
+      <c r="D45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>39</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="D46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>40</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>38</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>39</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>40</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D47" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>41</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>42</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>46</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>47</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>48</v>
       </c>
@@ -1323,7 +1563,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>49</v>
       </c>
@@ -1334,7 +1574,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>50</v>
       </c>
@@ -1345,7 +1585,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>51</v>
       </c>
@@ -1356,7 +1596,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>52</v>
       </c>
@@ -1367,7 +1607,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>53</v>
       </c>
@@ -1378,7 +1618,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>54</v>
       </c>
@@ -1389,7 +1629,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>55</v>
       </c>
@@ -1400,7 +1640,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>56</v>
       </c>
@@ -1411,7 +1651,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>57</v>
       </c>
@@ -1422,7 +1662,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>58</v>
       </c>
@@ -1433,7 +1673,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>59</v>
       </c>
@@ -1444,7 +1684,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>60</v>
       </c>
@@ -1455,7 +1695,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>61</v>
       </c>
@@ -1466,7 +1706,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>62</v>
       </c>
@@ -1477,7 +1717,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>63</v>
       </c>
@@ -1488,7 +1728,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>64</v>
       </c>
@@ -1501,15 +1741,15 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A44:G44"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A23:G23"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A44:G44"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E16:E22 E24:E33 E35:E39 E41:E43 E45:E1048576 E3:E14" xr:uid="{E512270F-2D92-41CA-9A22-27898DA73656}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E3:E14 E16:E22 E24:E33 E35:E39 E41:E43 E45:E1048576" xr:uid="{E512270F-2D92-41CA-9A22-27898DA73656}">
       <formula1>"yes, no"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganda\Documents\GitHub\Software-Engineering-Principles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715395FB-2A6F-4122-A74E-EB6427838A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AC3591-5344-4EF2-9266-4BC27513501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -283,13 +283,28 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>cannot search by this feature</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>not implemented before deadline</t>
+  </si>
+  <si>
+    <t>cannot report a comment</t>
+  </si>
+  <si>
+    <t>cannot report a review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +323,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -338,8 +360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -382,10 +403,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -395,23 +417,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,563 +755,573 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="E4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="E5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="E6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="E9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="E10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="E11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="E16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="E17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="E20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="E21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="E24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="E25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>22</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="E26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="E27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="7">
         <v>24</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="D28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="7">
         <v>25</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="D29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>26</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="E30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>27</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="E31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>28</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="E32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>29</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="E33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="E35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="E36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -1298,259 +1331,307 @@
       <c r="C37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>33</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="E38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="E39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>35</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="E41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>36</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="E42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>37</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="E43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>38</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5" t="s">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="E45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>39</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="E46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>40</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5" t="s">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="E47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="7">
         <v>41</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="D48" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="7">
         <v>42</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="D49" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="7">
         <v>43</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="D50" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="7">
         <v>44</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="D51" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52" s="7">
         <v>45</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="D52" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="A53" s="7">
         <v>46</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="D53" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="A54" s="7">
         <v>47</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="D54" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">

--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganda\Documents\GitHub\Software-Engineering-Principles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AC3591-5344-4EF2-9266-4BC27513501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8781346-FD06-4345-A9B5-65BD8323A57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>cannot report a review</t>
+  </si>
+  <si>
+    <t>Sufiyan, Isaac</t>
   </si>
 </sst>
 </file>
@@ -423,14 +426,14 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -718,7 +721,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,15 +758,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -780,7 +783,9 @@
         <v>85</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -797,7 +802,9 @@
         <v>85</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -814,7 +821,9 @@
         <v>85</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -831,7 +840,9 @@
         <v>85</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -848,7 +859,9 @@
         <v>85</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -865,7 +878,9 @@
         <v>85</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -882,7 +897,9 @@
         <v>85</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -899,7 +916,9 @@
         <v>85</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -916,7 +935,9 @@
         <v>85</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -933,7 +954,9 @@
         <v>85</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -950,7 +973,9 @@
         <v>85</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -967,18 +992,20 @@
         <v>85</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -995,7 +1022,9 @@
         <v>85</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1012,7 +1041,9 @@
         <v>85</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1029,7 +1060,9 @@
         <v>85</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -1044,7 +1077,9 @@
         <v>85</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1061,7 +1096,9 @@
         <v>85</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1078,7 +1115,9 @@
         <v>85</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1095,18 +1134,20 @@
         <v>85</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -1123,7 +1164,9 @@
         <v>85</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -1140,7 +1183,9 @@
         <v>85</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -1157,7 +1202,9 @@
         <v>85</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -1174,41 +1221,43 @@
         <v>85</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>24</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>25</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1225,7 +1274,9 @@
         <v>85</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -1242,7 +1293,9 @@
         <v>85</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
@@ -1259,7 +1312,9 @@
         <v>85</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
@@ -1276,18 +1331,20 @@
         <v>85</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
@@ -1304,7 +1361,9 @@
         <v>85</v>
       </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
@@ -1321,26 +1380,28 @@
         <v>85</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37" s="5">
         <v>32</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
@@ -1357,7 +1418,9 @@
         <v>85</v>
       </c>
       <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
@@ -1374,18 +1437,20 @@
         <v>85</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
@@ -1402,7 +1467,9 @@
         <v>85</v>
       </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
@@ -1419,7 +1486,9 @@
         <v>85</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
@@ -1436,18 +1505,20 @@
         <v>85</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
@@ -1464,7 +1535,9 @@
         <v>85</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
@@ -1481,7 +1554,9 @@
         <v>85</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
@@ -1498,140 +1573,142 @@
         <v>85</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48" s="5">
         <v>41</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="A49" s="5">
         <v>42</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7" t="s">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="A50" s="5">
         <v>43</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7" t="s">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="5">
         <v>44</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="A52" s="5">
         <v>45</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7" t="s">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G52" s="7"/>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="A53" s="5">
         <v>46</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7" t="s">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G53" s="7"/>
+      <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="A54" s="5">
         <v>47</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7" t="s">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G54" s="7"/>
+      <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">

--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganda\Documents\GitHub\Software-Engineering-Principles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8781346-FD06-4345-A9B5-65BD8323A57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759915D5-97F4-4C84-83F5-D0886573CD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>Sufiyan, Isaac</t>
+  </si>
+  <si>
+    <t>Isaac, Isaac</t>
   </si>
 </sst>
 </file>
@@ -720,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +844,7 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,7 +863,7 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -879,7 +882,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
